--- a/config_11.10/act_030_cwlb_config.xlsx
+++ b/config_11.10/act_030_cwlb_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|配置" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>icon|活动图标</t>
   </si>
@@ -147,25 +147,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>500京东卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>key|权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cps_xiaomi</t>
-  </si>
-  <si>
-    <t>cps_xiaomi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jdk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_jb_30y","ty_icon_yb_1","cwzp_icon_cjq",</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -190,31 +171,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"金币*60万","鱼币*3000","抽奖券*1",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币*200万","鱼币*1万","抽奖券*4",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币*480万","鱼币*3万","抽奖券*10",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币*980万","鱼币*10万","抽奖券*20",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币*1980万","鱼币*50万","抽奖券*30",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币*4980万","鱼币*200万","抽奖券*50",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>shop_gold_sum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*4980万","小游戏币*200万","抽奖券*50",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*1980万","小游戏币*50万","抽奖券*30",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*980万","小游戏币*10万","抽奖券*20",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*480万","小游戏币*3万","抽奖券*10",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*60万","小游戏币*3000","抽奖券*1",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*200万","小游戏币*1万","抽奖券*4",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为P40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s11kh_icon_sj</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,8 +240,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +258,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -307,11 +309,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -591,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -625,9 +632,7 @@
       <c r="F1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -645,11 +650,8 @@
       <c r="E2">
         <v>12000</v>
       </c>
-      <c r="F2" s="6">
-        <v>11773</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
+      <c r="F2" s="10">
+        <v>11818</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -663,16 +665,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>15</v>
       </c>
-      <c r="F3" s="6">
-        <v>11774</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
+      <c r="F3" s="10">
+        <v>11819</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -691,11 +690,8 @@
       <c r="E4">
         <v>20000</v>
       </c>
-      <c r="F4" s="6">
-        <v>11775</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
+      <c r="F4" s="10">
+        <v>11820</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -714,11 +710,8 @@
       <c r="E5">
         <v>30</v>
       </c>
-      <c r="F5" s="6">
-        <v>11776</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
+      <c r="F5" s="10">
+        <v>11821</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -737,30 +730,25 @@
       <c r="E6">
         <v>50000</v>
       </c>
-      <c r="F6" s="6">
-        <v>11777</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
+      <c r="F6" s="10">
+        <v>11822</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>34</v>
+      <c r="B7" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="F7" s="6">
-        <v>11778</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="F7" s="10">
+        <v>11823</v>
+      </c>
+      <c r="G7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -771,10 +759,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -807,126 +795,135 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>10324</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="8">
+        <v>10357</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="9">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>10358</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="9">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>10359</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>10360</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>10361</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>10362</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
+      <c r="D7" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>10325</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10326</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>10327</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>10328</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>10329</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
+    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_11.10/act_030_cwlb_config.xlsx
+++ b/config_11.10/act_030_cwlb_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config|配置" sheetId="6" r:id="rId1"/>
@@ -147,30 +147,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_jb_30y","ty_icon_yb_1","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_48y","ty_icon_yb_1","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","ty_icon_yb_2","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","ty_icon_yb_3","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","ty_icon_yb_4","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_yb_5","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>shop_gold_sum</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -204,6 +180,30 @@
   </si>
   <si>
     <t>s11kh_icon_sj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_yxb_5","cwzp_icon_cjq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","ty_icon_yxb_4","cwzp_icon_cjq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","ty_icon_yxb_3","cwzp_icon_cjq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","ty_icon_yxb_2","cwzp_icon_cjq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_48y","ty_icon_yxb_1","cwzp_icon_cjq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_yxb_1","cwzp_icon_cjq",</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -638,21 +638,17 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2">
-        <v>12000</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="F2" s="10">
-        <v>11818</v>
-      </c>
+        <v>11823</v>
+      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -665,7 +661,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -738,17 +734,21 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>44</v>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>12000</v>
+      </c>
       <c r="F7" s="10">
-        <v>11823</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>11818</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -809,10 +809,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -829,10 +829,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -849,10 +849,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -869,10 +869,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -889,10 +889,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -909,10 +909,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
